--- a/Economics/ACF - PACF/Log-Prices/CPI residuals - values.xlsx
+++ b/Economics/ACF - PACF/Log-Prices/CPI residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.02079984190428506</v>
+        <v>-0.02195911174949871</v>
       </c>
       <c r="C3">
-        <v>-0.02100784032332792</v>
+        <v>-0.0221787028669937</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02241605483516838</v>
+        <v>0.0361625170274903</v>
       </c>
       <c r="C4">
-        <v>0.02243747739017312</v>
+        <v>0.03641909243057706</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.09814348784335412</v>
+        <v>-0.05485683892393335</v>
       </c>
       <c r="C5">
-        <v>-0.1003016102892027</v>
+        <v>-0.05504000106163975</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.02952600952671406</v>
+        <v>-0.04661460555493443</v>
       </c>
       <c r="C6">
-        <v>-0.03555726609586331</v>
+        <v>-0.05240641980457732</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0324565962115004</v>
+        <v>0.002878930179684387</v>
       </c>
       <c r="C7">
-        <v>0.03763218116607073</v>
+        <v>0.004989322140613982</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.006930793033673971</v>
+        <v>0.01434368197495997</v>
       </c>
       <c r="C8">
-        <v>-0.01481102801548353</v>
+        <v>0.01611284894745189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.02437268340050613</v>
+        <v>-0.0167580131615558</v>
       </c>
       <c r="C9">
-        <v>-0.03547440153868261</v>
+        <v>-0.02348579240055121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01737402225224114</v>
+        <v>-0.01196940066347294</v>
       </c>
       <c r="C10">
-        <v>0.02476677144028034</v>
+        <v>-0.01732237742871321</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.05569557791509418</v>
+        <v>-0.05565901108640042</v>
       </c>
       <c r="C11">
-        <v>-0.05959761572453679</v>
+        <v>-0.05850630372795346</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0477751135508037</v>
+        <v>-0.01968005109154631</v>
       </c>
       <c r="C12">
-        <v>-0.06607474860903655</v>
+        <v>-0.02443985025354751</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0426485400679087</v>
+        <v>0.04317419911658966</v>
       </c>
       <c r="C13">
-        <v>0.05305684056522587</v>
+        <v>0.04852130053586672</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.09602157291714117</v>
+        <v>0.06834489005860893</v>
       </c>
       <c r="C14">
-        <v>0.1076189812516291</v>
+        <v>0.07428515543673291</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07825766151246256</v>
+        <v>0.07936439391081775</v>
       </c>
       <c r="C15">
-        <v>0.07539187113005731</v>
+        <v>0.08474146475588826</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.05521151906199554</v>
+        <v>-0.03314467235966105</v>
       </c>
       <c r="C16">
-        <v>-0.057826242858011</v>
+        <v>-0.03704925006428711</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.03419092384356829</v>
+        <v>-0.03393099150120162</v>
       </c>
       <c r="C17">
-        <v>-0.01992964530679096</v>
+        <v>-0.03586902778638395</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.329935947378642</v>
+        <v>-0.3527385161065607</v>
       </c>
       <c r="C18">
-        <v>-0.3943383536266424</v>
+        <v>-0.4165921955598484</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0427643696990174</v>
+        <v>0.04528162659186064</v>
       </c>
       <c r="C19">
-        <v>0.01701384995492049</v>
+        <v>0.03282881368091096</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.005563889676752863</v>
+        <v>0.004016944805152982</v>
       </c>
       <c r="C20">
-        <v>0.02622699362111352</v>
+        <v>0.03253383380555996</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.06247789989475434</v>
+        <v>-0.1161052367710583</v>
       </c>
       <c r="C21">
-        <v>-0.1676526136642805</v>
+        <v>-0.2144850582601454</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.03185004629256799</v>
+        <v>-0.02106289739018938</v>
       </c>
       <c r="C22">
-        <v>-0.06087216296134292</v>
+        <v>-0.0637982029709387</v>
       </c>
     </row>
   </sheetData>
